--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_13-14.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_13-14.xlsx
@@ -95,6 +95,12 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>LEVANIC 500MG 7 F.C. TAB.</t>
   </si>
   <si>
@@ -174,6 +180,12 @@
   </si>
   <si>
     <t>-1:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>صابون ديتول العنايه بالبشره</t>
@@ -1044,17 +1056,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1062,7 +1074,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1076,7 +1088,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>36.5</v>
+        <v>92</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1088,7 +1100,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1096,13 +1108,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1128,11 +1140,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1148,17 +1160,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1166,7 +1178,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1174,17 +1186,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1206,11 +1218,11 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1226,17 +1238,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1244,7 +1256,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1252,7 +1264,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1278,17 +1290,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1296,7 +1308,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1304,17 +1316,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1322,7 +1334,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1330,17 +1342,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1362,11 +1374,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1382,13 +1394,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1400,7 +1412,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1408,13 +1420,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1440,11 +1452,11 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1466,11 +1478,11 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>12</v>
+        <v>11.67</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1486,17 +1498,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>133.65000000000001</v>
+        <v>12</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1504,7 +1516,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1512,13 +1524,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1530,7 +1542,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1538,17 +1550,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>25</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1556,7 +1568,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1564,51 +1576,103 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="35" ht="26.25" customHeight="1">
-      <c r="K35" s="10">
-        <v>1012.3200000000001</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="11">
+    <row r="35" ht="25.5" customHeight="1">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c t="s" r="B35" s="7">
         <v>61</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c t="s" r="F36" s="12">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c t="s" r="H35" s="8">
         <v>62</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c t="s" r="I36" s="14">
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9">
+        <v>25</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c t="s" r="N35" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" ht="24.75" customHeight="1">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c t="s" r="B36" s="7">
         <v>63</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c t="s" r="H36" s="8">
+        <v>64</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9">
+        <v>40</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c t="s" r="N36" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" ht="26.25" customHeight="1">
+      <c r="K37" s="10">
+        <v>1051.3199999999999</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="11">
+        <v>65</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c t="s" r="F38" s="12">
+        <v>66</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
+      <c t="s" r="I38" s="14">
+        <v>67</v>
+      </c>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="110">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1709,10 +1773,16 @@
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:N38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
